--- a/socialstyrelsen/statistik-covid19-inskrivna_2020-12-28.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_2020-12-28.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,12 +31,12 @@
     <definedName name="innehållsförteckning" localSheetId="2">'[2]Om statistiken'!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="289">
   <si>
     <t>Diabetes</t>
   </si>
@@ -995,7 +995,37 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett. </t>
+  </si>
+  <si>
     <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
+  </si>
+  <si>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
   </si>
   <si>
     <t>vecka 26</t>
@@ -1109,46 +1139,16 @@
     <t>vecka 49</t>
   </si>
   <si>
+    <t>vecka 51</t>
+  </si>
+  <si>
+    <t>vecka 52</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>vecka 51</t>
-  </si>
-  <si>
-    <t>vecka 52</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett. </t>
-  </si>
-  <si>
-    <r>
-      <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett.</t>
-    </r>
-  </si>
-  <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, om det skulle förekomma mer än ett.</t>
   </si>
   <si>
     <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med den 27 december 2020 enligt rapportering till patientregistret eller frivillig särskild</t>
@@ -2082,7 +2082,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2696,42 +2696,30 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="9" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2771,9 +2759,60 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2801,63 +2840,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2912,7 +2900,19 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2921,28 +2921,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3040,6 +3025,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3500,6 +3486,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5463,16 +5450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27270</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>551145</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5483,7 +5470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4884420" y="628650"/>
+          <a:off x="5408295" y="238125"/>
           <a:ext cx="1296000" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5962,7 +5949,7 @@
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, om det skulle förekomma mer än ett.</a:t>
+            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</a:t>
           </a:fld>
           <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
         </a:p>
@@ -7795,86 +7782,86 @@
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
     <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="237" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="239"/>
+      <c r="B3" s="233" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="235"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="239" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="245"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="241"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="243" t="str">
+      <c r="B5" s="239" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="245"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="241"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="239" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="245"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="241"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="242"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="242"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="238"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="243" t="s">
+      <c r="B9" s="239" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="245"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="241"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="243" t="s">
+      <c r="B10" s="239" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="244"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="245"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="241"/>
     </row>
     <row r="11" spans="2:6" ht="133.9" customHeight="1" thickBot="1">
-      <c r="B11" s="234" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="236"/>
+      <c r="B11" s="230" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="232"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="20"/>
@@ -7895,11 +7882,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="233" t="s">
+      <c r="C15" s="229" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8424,7 +8411,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="244" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8438,24 +8425,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="270"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="267" t="s">
+      <c r="D14" s="242" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="267" t="s">
+      <c r="E14" s="242" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="270"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="243"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="109" t="s">
@@ -8471,20 +8458,20 @@
       <c r="B17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="274" t="s">
+      <c r="C17" s="251" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="274"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="108"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="273" t="s">
+      <c r="C18" s="250" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="273"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8701,16 +8688,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="271" t="s">
+      <c r="B39" s="246" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="272" t="s">
+      <c r="D39" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="272" t="s">
+      <c r="E39" s="248" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8718,45 +8705,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="263"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="258"/>
-      <c r="E40" s="258"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="263"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="263"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="258"/>
-      <c r="E42" s="258"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="263"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="258"/>
-      <c r="E43" s="258"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8786,22 +8773,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="257"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="258" t="s">
+      <c r="B46" s="255"/>
+      <c r="C46" s="255"/>
+      <c r="D46" s="249" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="258" t="s">
+      <c r="E46" s="249" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="258"/>
+      <c r="F46" s="249"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="257"/>
-      <c r="C47" s="257"/>
-      <c r="D47" s="258"/>
-      <c r="E47" s="258"/>
-      <c r="F47" s="258"/>
+      <c r="B47" s="255"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="249"/>
+      <c r="E47" s="249"/>
+      <c r="F47" s="249"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8815,16 +8802,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="262" t="s">
+      <c r="B49" s="254" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="264" t="s">
+      <c r="D49" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="264" t="s">
+      <c r="E49" s="256" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8832,30 +8819,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="263"/>
+      <c r="B50" s="247"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="257"/>
-      <c r="E50" s="257"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="255"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="263"/>
+      <c r="B51" s="247"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="257"/>
-      <c r="E51" s="257"/>
+      <c r="D51" s="255"/>
+      <c r="E51" s="255"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="263"/>
+      <c r="B52" s="247"/>
       <c r="C52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="257"/>
-      <c r="E52" s="257"/>
+      <c r="D52" s="255"/>
+      <c r="E52" s="255"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8907,46 +8894,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="265" t="s">
+      <c r="B57" s="257" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="266" t="s">
+      <c r="D57" s="259" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="266" t="s">
+      <c r="E57" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="261"/>
+      <c r="F57" s="252"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="256"/>
+      <c r="B58" s="258"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="258"/>
-      <c r="E58" s="258"/>
-      <c r="F58" s="246"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="253"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="256"/>
+      <c r="B59" s="258"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="258"/>
-      <c r="E59" s="258"/>
-      <c r="F59" s="246"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="253"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="256"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="258"/>
-      <c r="E60" s="258"/>
-      <c r="F60" s="246"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+      <c r="F60" s="253"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8962,22 +8949,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="256"/>
-      <c r="C62" s="257"/>
-      <c r="D62" s="258" t="s">
+      <c r="B62" s="258"/>
+      <c r="C62" s="255"/>
+      <c r="D62" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="258" t="s">
+      <c r="E62" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="246"/>
+      <c r="F62" s="253"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="256"/>
-      <c r="C63" s="257"/>
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="246"/>
+      <c r="B63" s="258"/>
+      <c r="C63" s="255"/>
+      <c r="D63" s="249"/>
+      <c r="E63" s="249"/>
+      <c r="F63" s="253"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9113,47 +9100,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="253" t="s">
+      <c r="B78" s="266" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="254"/>
-      <c r="D78" s="254"/>
-      <c r="E78" s="254"/>
+      <c r="C78" s="267"/>
+      <c r="D78" s="267"/>
+      <c r="E78" s="267"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="251" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" s="251"/>
-      <c r="D79" s="251"/>
+      <c r="B79" s="264" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="264"/>
+      <c r="D79" s="264"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="250" t="s">
+      <c r="C80" s="263" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="250"/>
+      <c r="D80" s="263"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="252" t="s">
+      <c r="C81" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="252"/>
+      <c r="D81" s="265"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="249" t="s">
+      <c r="C82" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="249"/>
+      <c r="D82" s="262"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -9168,31 +9155,31 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="260" t="s">
+      <c r="B86" s="270" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="260"/>
-      <c r="D86" s="260"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="270"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="247" t="s">
+      <c r="B87" s="260" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="255" t="s">
+      <c r="C87" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="259" t="s">
+      <c r="D87" s="269" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="248"/>
-      <c r="C88" s="255"/>
-      <c r="D88" s="259"/>
+      <c r="B88" s="261"/>
+      <c r="C88" s="268"/>
+      <c r="D88" s="269"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C89" s="133" t="s">
         <v>279</v>
@@ -9427,26 +9414,6 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9461,6 +9428,26 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9496,7 +9483,7 @@
         <v>44069</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9558,15 +9545,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="275" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="A2" s="271" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="76"/>
@@ -9597,29 +9584,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="276" t="s">
+      <c r="B6" s="272" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="278"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="284" t="s">
+      <c r="B7" s="280" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="282" t="s">
+      <c r="C7" s="280"/>
+      <c r="D7" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="283"/>
-      <c r="F7" s="281" t="s">
+      <c r="E7" s="279"/>
+      <c r="F7" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="281"/>
+      <c r="G7" s="277"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -9696,10 +9683,10 @@
         <v>214</v>
       </c>
       <c r="B11" s="34">
-        <v>27221</v>
+        <v>27220</v>
       </c>
       <c r="C11" s="119">
-        <v>77.6478307</v>
+        <v>77.644978199999997</v>
       </c>
       <c r="D11" s="34">
         <v>14825</v>
@@ -9708,10 +9695,10 @@
         <v>76.045139800000001</v>
       </c>
       <c r="F11" s="34">
-        <v>12396</v>
+        <v>12395</v>
       </c>
       <c r="G11" s="54">
-        <v>79.655571300000005</v>
+        <v>79.649145399999995</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="30" customFormat="1">
@@ -9719,43 +9706,43 @@
         <v>205</v>
       </c>
       <c r="B12" s="34">
-        <v>5068</v>
+        <v>5139</v>
       </c>
       <c r="C12" s="119">
-        <v>14.456456599999999</v>
+        <v>14.658983900000001</v>
       </c>
       <c r="D12" s="34">
-        <v>3096</v>
+        <v>3138</v>
       </c>
       <c r="E12" s="54">
-        <v>15.8809951</v>
+        <v>16.096435</v>
       </c>
       <c r="F12" s="34">
-        <v>1972</v>
+        <v>2001</v>
       </c>
       <c r="G12" s="54">
-        <v>12.6718931</v>
+        <v>12.8582444</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="30" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="118">
-        <v>3536</v>
+        <v>3556</v>
       </c>
       <c r="C13" s="121">
-        <v>10.086430699999999</v>
+        <v>10.1434806</v>
       </c>
       <c r="D13" s="118">
-        <v>2520</v>
+        <v>2531</v>
       </c>
       <c r="E13" s="81">
-        <v>12.9263914</v>
+        <v>12.982816100000001</v>
       </c>
       <c r="F13" s="118">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="G13" s="82">
-        <v>6.5287237999999999</v>
+        <v>6.586557</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1">
@@ -10267,22 +10254,22 @@
         <v>133</v>
       </c>
       <c r="B36" s="29">
-        <v>2069</v>
+        <v>2083</v>
       </c>
       <c r="C36" s="119">
-        <v>5.9018170000000003</v>
+        <v>5.9417520000000001</v>
       </c>
       <c r="D36" s="29">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="E36" s="54">
-        <v>5.0371889999999997</v>
+        <v>5.0782252000000003</v>
       </c>
       <c r="F36" s="60">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="G36" s="54">
-        <v>6.9849633999999998</v>
+        <v>7.0235187999999997</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1">
@@ -10290,56 +10277,56 @@
         <v>146</v>
       </c>
       <c r="B37" s="52">
-        <v>6306</v>
+        <v>6339</v>
       </c>
       <c r="C37" s="120">
-        <v>17.987848400000001</v>
+        <v>18.0819808</v>
       </c>
       <c r="D37" s="52">
-        <v>2848</v>
+        <v>2862</v>
       </c>
       <c r="E37" s="69">
-        <v>14.6088741</v>
+        <v>14.6806874</v>
       </c>
       <c r="F37" s="52">
-        <v>3458</v>
+        <v>3477</v>
       </c>
       <c r="G37" s="69">
-        <v>22.2207942</v>
+        <v>22.342886499999999</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="279" t="s">
+      <c r="A38" s="275" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="279"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="279"/>
+      <c r="B38" s="275"/>
+      <c r="C38" s="275"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
+      <c r="F38" s="275"/>
+      <c r="G38" s="275"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="281" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="285"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="285"/>
-      <c r="E39" s="285"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="285"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="281"/>
+      <c r="E39" s="281"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="281"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="280" t="s">
+      <c r="A40" s="276" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="280"/>
-      <c r="C40" s="280"/>
-      <c r="D40" s="280"/>
-      <c r="E40" s="280"/>
-      <c r="F40" s="280"/>
-      <c r="G40" s="280"/>
+      <c r="B40" s="276"/>
+      <c r="C40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="276"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="47"/>
@@ -10391,15 +10378,15 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="286" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
+      <c r="A2" s="282" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
@@ -10408,30 +10395,30 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="289"/>
-      <c r="D5" s="288" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="284" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="289"/>
-      <c r="F5" s="288" t="s">
+      <c r="E5" s="285"/>
+      <c r="F5" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="289"/>
+      <c r="G5" s="285"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="290"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="282"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="278"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="291"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10462,16 +10449,16 @@
         <v>100</v>
       </c>
       <c r="D8" s="88">
-        <v>27221</v>
+        <v>27220</v>
       </c>
       <c r="E8" s="128">
-        <v>77.647830675756595</v>
+        <v>77.644978178395206</v>
       </c>
       <c r="F8" s="88">
-        <v>5068</v>
+        <v>5139</v>
       </c>
       <c r="G8" s="128">
-        <v>14.4564566277776</v>
+        <v>14.658983940439899</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10514,10 +10501,10 @@
         <v>76.409666283083993</v>
       </c>
       <c r="F10" s="103">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="G10" s="127">
-        <v>15.3893364019946</v>
+        <v>15.5197545070963</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10537,10 +10524,10 @@
         <v>76.950689590024595</v>
       </c>
       <c r="F11" s="103">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="G11" s="127">
-        <v>14.604194218779501</v>
+        <v>14.9253731343284</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10560,10 +10547,10 @@
         <v>82.4068018312623</v>
       </c>
       <c r="F12" s="103">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G12" s="127">
-        <v>13.3093525179856</v>
+        <v>13.3420536298234</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10583,10 +10570,10 @@
         <v>78.490566037735903</v>
       </c>
       <c r="F13" s="103">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G13" s="127">
-        <v>10.5660377358491</v>
+        <v>10.781671159029701</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10606,10 +10593,10 @@
         <v>82.162162162162204</v>
       </c>
       <c r="F14" s="103">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G14" s="127">
-        <v>12.0463320463321</v>
+        <v>12.277992277992301</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10629,10 +10616,10 @@
         <v>76.885644768856494</v>
       </c>
       <c r="F15" s="103">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G15" s="127">
-        <v>16.058394160583902</v>
+        <v>16.220600162206001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10646,16 +10633,16 @@
         <v>3.4743417862338499</v>
       </c>
       <c r="D16" s="103">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E16" s="127">
-        <v>80.377668308702795</v>
+        <v>80.295566502463103</v>
       </c>
       <c r="F16" s="103">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G16" s="127">
-        <v>14.696223316913001</v>
+        <v>15.188834154351399</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10698,10 +10685,10 @@
         <v>69.409486931268205</v>
       </c>
       <c r="F18" s="103">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G18" s="127">
-        <v>12.197483059051301</v>
+        <v>12.7783155856728</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10721,10 +10708,10 @@
         <v>86.890951276102101</v>
       </c>
       <c r="F19" s="103">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="127">
-        <v>11.136890951276101</v>
+        <v>11.2529002320186</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10744,10 +10731,10 @@
         <v>73.453608247422693</v>
       </c>
       <c r="F20" s="103">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G20" s="127">
-        <v>17.3969072164948</v>
+        <v>17.912371134020599</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10790,10 +10777,10 @@
         <v>80.237741456166404</v>
       </c>
       <c r="F22" s="103">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G22" s="127">
-        <v>16.196136701337299</v>
+        <v>16.344725111441299</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10813,10 +10800,10 @@
         <v>62.8521126760564</v>
       </c>
       <c r="F23" s="103">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="127">
-        <v>16.373239436619698</v>
+        <v>16.549295774647899</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10836,10 +10823,10 @@
         <v>65.412186379928301</v>
       </c>
       <c r="F24" s="103">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G24" s="127">
-        <v>17.921146953405</v>
+        <v>18.637992831541201</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10882,10 +10869,10 @@
         <v>81.6631130063966</v>
       </c>
       <c r="F26" s="103">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26" s="127">
-        <v>13.006396588486099</v>
+        <v>13.2196162046908</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10905,15 +10892,15 @@
         <v>85.567010309278402</v>
       </c>
       <c r="F27" s="103">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27" s="127">
-        <v>9.6219931271477694</v>
+        <v>9.9656357388316206</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B28" s="92">
         <v>249</v>
@@ -10928,10 +10915,10 @@
         <v>79.518072289156606</v>
       </c>
       <c r="F28" s="131">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" s="127">
-        <v>12.851405622490001</v>
+        <v>13.253012048192801</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10951,7 +10938,7 @@
         <v>83.966244725738406</v>
       </c>
       <c r="F29" s="111" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G29" s="54"/>
     </row>
@@ -10972,7 +10959,7 @@
         <v>87.878787878787904</v>
       </c>
       <c r="F30" s="150" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G30" s="151"/>
     </row>
@@ -10998,13 +10985,13 @@
       <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="287"/>
-      <c r="B34" s="287"/>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="287"/>
-      <c r="F34" s="287"/>
-      <c r="G34" s="287"/>
+      <c r="A34" s="283"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="283"/>
+      <c r="E34" s="283"/>
+      <c r="F34" s="283"/>
+      <c r="G34" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11061,17 +11048,17 @@
       </c>
     </row>
     <row r="2" spans="1:89" ht="30" customHeight="1">
-      <c r="A2" s="275" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
+      <c r="A2" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
     </row>
     <row r="3" spans="1:89">
       <c r="A3" s="61"/>
@@ -11092,280 +11079,280 @@
     </row>
     <row r="5" spans="1:89" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="289"/>
-      <c r="D5" s="276" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="277"/>
-      <c r="AE5" s="277"/>
-      <c r="AF5" s="277"/>
-      <c r="AG5" s="277"/>
-      <c r="AH5" s="277"/>
-      <c r="AI5" s="277"/>
-      <c r="AJ5" s="277"/>
-      <c r="AK5" s="277"/>
-      <c r="AL5" s="277"/>
-      <c r="AM5" s="277"/>
-      <c r="AN5" s="277"/>
-      <c r="AO5" s="277"/>
-      <c r="AP5" s="277"/>
-      <c r="AQ5" s="277"/>
-      <c r="AR5" s="277"/>
-      <c r="AS5" s="277"/>
-      <c r="AT5" s="277"/>
-      <c r="AU5" s="277"/>
-      <c r="AV5" s="277"/>
-      <c r="AW5" s="277"/>
-      <c r="AX5" s="277"/>
-      <c r="AY5" s="277"/>
-      <c r="AZ5" s="277"/>
-      <c r="BA5" s="277"/>
-      <c r="BB5" s="277"/>
-      <c r="BC5" s="277"/>
-      <c r="BD5" s="227"/>
-      <c r="BE5" s="227"/>
-      <c r="BF5" s="227"/>
-      <c r="BG5" s="227"/>
-      <c r="BH5" s="227"/>
-      <c r="BI5" s="227"/>
-      <c r="BJ5" s="227"/>
-      <c r="BK5" s="227"/>
-      <c r="BL5" s="227"/>
-      <c r="BM5" s="227"/>
-      <c r="BN5" s="227"/>
-      <c r="BO5" s="227"/>
-      <c r="BP5" s="227"/>
-      <c r="BQ5" s="227"/>
-      <c r="BR5" s="227"/>
-      <c r="BS5" s="228"/>
-      <c r="BT5" s="301" t="s">
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="226"/>
+      <c r="O5" s="226"/>
+      <c r="P5" s="226"/>
+      <c r="Q5" s="226"/>
+      <c r="R5" s="226"/>
+      <c r="S5" s="226"/>
+      <c r="T5" s="226"/>
+      <c r="U5" s="226"/>
+      <c r="V5" s="226"/>
+      <c r="W5" s="226"/>
+      <c r="X5" s="226"/>
+      <c r="Y5" s="226"/>
+      <c r="Z5" s="226"/>
+      <c r="AA5" s="226"/>
+      <c r="AB5" s="226"/>
+      <c r="AC5" s="226"/>
+      <c r="AD5" s="226"/>
+      <c r="AE5" s="226"/>
+      <c r="AF5" s="226"/>
+      <c r="AG5" s="226"/>
+      <c r="AH5" s="226"/>
+      <c r="AI5" s="226"/>
+      <c r="AJ5" s="226"/>
+      <c r="AK5" s="226"/>
+      <c r="AL5" s="226"/>
+      <c r="AM5" s="226"/>
+      <c r="AN5" s="226"/>
+      <c r="AO5" s="226"/>
+      <c r="AP5" s="226"/>
+      <c r="AQ5" s="226"/>
+      <c r="AR5" s="226"/>
+      <c r="AS5" s="226"/>
+      <c r="AT5" s="226"/>
+      <c r="AU5" s="226"/>
+      <c r="AV5" s="226"/>
+      <c r="AW5" s="226"/>
+      <c r="AX5" s="226"/>
+      <c r="AY5" s="226"/>
+      <c r="AZ5" s="226"/>
+      <c r="BA5" s="226"/>
+      <c r="BB5" s="226"/>
+      <c r="BC5" s="226"/>
+      <c r="BD5" s="223"/>
+      <c r="BE5" s="223"/>
+      <c r="BF5" s="223"/>
+      <c r="BG5" s="223"/>
+      <c r="BH5" s="223"/>
+      <c r="BI5" s="223"/>
+      <c r="BJ5" s="223"/>
+      <c r="BK5" s="223"/>
+      <c r="BL5" s="223"/>
+      <c r="BM5" s="223"/>
+      <c r="BN5" s="223"/>
+      <c r="BO5" s="223"/>
+      <c r="BP5" s="223"/>
+      <c r="BQ5" s="223"/>
+      <c r="BR5" s="223"/>
+      <c r="BS5" s="224"/>
+      <c r="BT5" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="BU5" s="302"/>
-      <c r="BV5" s="302"/>
-      <c r="BW5" s="302"/>
-      <c r="BX5" s="302"/>
-      <c r="BY5" s="302"/>
-      <c r="BZ5" s="302"/>
-      <c r="CA5" s="302"/>
-      <c r="CB5" s="302"/>
-      <c r="CC5" s="302"/>
-      <c r="CD5" s="302"/>
-      <c r="CE5" s="302"/>
-      <c r="CF5" s="302"/>
-      <c r="CG5" s="302"/>
-      <c r="CH5" s="302"/>
-      <c r="CI5" s="302"/>
-      <c r="CJ5" s="302"/>
-      <c r="CK5" s="303"/>
+      <c r="BU5" s="273"/>
+      <c r="BV5" s="273"/>
+      <c r="BW5" s="273"/>
+      <c r="BX5" s="273"/>
+      <c r="BY5" s="273"/>
+      <c r="BZ5" s="273"/>
+      <c r="CA5" s="273"/>
+      <c r="CB5" s="273"/>
+      <c r="CC5" s="273"/>
+      <c r="CD5" s="273"/>
+      <c r="CE5" s="273"/>
+      <c r="CF5" s="273"/>
+      <c r="CG5" s="273"/>
+      <c r="CH5" s="273"/>
+      <c r="CI5" s="273"/>
+      <c r="CJ5" s="273"/>
+      <c r="CK5" s="291"/>
     </row>
     <row r="6" spans="1:89" ht="13.5" customHeight="1">
-      <c r="A6" s="298"/>
+      <c r="A6" s="296"/>
       <c r="B6" s="294"/>
       <c r="C6" s="295"/>
-      <c r="D6" s="296" t="s">
+      <c r="D6" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="297"/>
-      <c r="F6" s="296" t="s">
+      <c r="E6" s="293"/>
+      <c r="F6" s="292" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="297"/>
-      <c r="H6" s="296" t="s">
+      <c r="G6" s="293"/>
+      <c r="H6" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="297"/>
-      <c r="J6" s="296" t="s">
+      <c r="I6" s="293"/>
+      <c r="J6" s="292" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="297"/>
-      <c r="L6" s="296" t="s">
+      <c r="K6" s="293"/>
+      <c r="L6" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="M6" s="297"/>
-      <c r="N6" s="296" t="s">
+      <c r="M6" s="293"/>
+      <c r="N6" s="292" t="s">
         <v>169</v>
       </c>
-      <c r="O6" s="297"/>
-      <c r="P6" s="296" t="s">
+      <c r="O6" s="293"/>
+      <c r="P6" s="292" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="296" t="s">
+      <c r="Q6" s="293"/>
+      <c r="R6" s="292" t="s">
         <v>171</v>
       </c>
-      <c r="S6" s="297"/>
-      <c r="T6" s="296" t="s">
+      <c r="S6" s="293"/>
+      <c r="T6" s="292" t="s">
         <v>172</v>
       </c>
-      <c r="U6" s="297"/>
-      <c r="V6" s="296" t="s">
+      <c r="U6" s="293"/>
+      <c r="V6" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="W6" s="297"/>
-      <c r="X6" s="296" t="s">
+      <c r="W6" s="293"/>
+      <c r="X6" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="Y6" s="297"/>
-      <c r="Z6" s="296" t="s">
+      <c r="Y6" s="293"/>
+      <c r="Z6" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="AA6" s="297"/>
-      <c r="AB6" s="296" t="s">
+      <c r="AA6" s="293"/>
+      <c r="AB6" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="AC6" s="297"/>
-      <c r="AD6" s="296" t="s">
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="292" t="s">
         <v>222</v>
       </c>
-      <c r="AE6" s="297"/>
-      <c r="AF6" s="296" t="s">
+      <c r="AE6" s="293"/>
+      <c r="AF6" s="292" t="s">
         <v>230</v>
       </c>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="296" t="s">
+      <c r="AG6" s="293"/>
+      <c r="AH6" s="292" t="s">
         <v>234</v>
       </c>
-      <c r="AI6" s="297"/>
-      <c r="AJ6" s="296" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK6" s="297"/>
-      <c r="AL6" s="296" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM6" s="297"/>
-      <c r="AN6" s="296" t="s">
-        <v>242</v>
-      </c>
-      <c r="AO6" s="297"/>
-      <c r="AP6" s="296" t="s">
+      <c r="AI6" s="293"/>
+      <c r="AJ6" s="292" t="s">
         <v>243</v>
       </c>
-      <c r="AQ6" s="297"/>
-      <c r="AR6" s="296" t="s">
+      <c r="AK6" s="293"/>
+      <c r="AL6" s="292" t="s">
         <v>244</v>
       </c>
-      <c r="AS6" s="297"/>
-      <c r="AT6" s="296" t="s">
+      <c r="AM6" s="293"/>
+      <c r="AN6" s="292" t="s">
         <v>245</v>
       </c>
-      <c r="AU6" s="297"/>
-      <c r="AV6" s="296" t="s">
+      <c r="AO6" s="293"/>
+      <c r="AP6" s="292" t="s">
         <v>246</v>
       </c>
-      <c r="AW6" s="297"/>
-      <c r="AX6" s="296" t="s">
+      <c r="AQ6" s="293"/>
+      <c r="AR6" s="292" t="s">
         <v>247</v>
       </c>
-      <c r="AY6" s="297"/>
-      <c r="AZ6" s="296" t="s">
+      <c r="AS6" s="293"/>
+      <c r="AT6" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="BA6" s="299"/>
-      <c r="BB6" s="292" t="s">
+      <c r="AU6" s="293"/>
+      <c r="AV6" s="292" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW6" s="293"/>
+      <c r="AX6" s="292" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY6" s="293"/>
+      <c r="AZ6" s="292" t="s">
         <v>251</v>
       </c>
-      <c r="BC6" s="293"/>
-      <c r="BD6" s="292" t="s">
-        <v>252</v>
-      </c>
-      <c r="BE6" s="300"/>
-      <c r="BF6" s="292" t="s">
-        <v>253</v>
-      </c>
-      <c r="BG6" s="300"/>
-      <c r="BH6" s="292" t="s">
+      <c r="BA6" s="297"/>
+      <c r="BB6" s="288" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC6" s="298"/>
+      <c r="BD6" s="288" t="s">
         <v>255</v>
       </c>
-      <c r="BI6" s="300"/>
-      <c r="BJ6" s="292" t="s">
-        <v>254</v>
-      </c>
-      <c r="BK6" s="300"/>
-      <c r="BL6" s="292" t="s">
+      <c r="BE6" s="289"/>
+      <c r="BF6" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="BM6" s="300"/>
-      <c r="BN6" s="292" t="s">
-        <v>260</v>
-      </c>
-      <c r="BO6" s="300"/>
-      <c r="BP6" s="292" t="s">
-        <v>261</v>
-      </c>
-      <c r="BQ6" s="300"/>
-      <c r="BR6" s="292" t="s">
+      <c r="BG6" s="289"/>
+      <c r="BH6" s="288" t="s">
+        <v>258</v>
+      </c>
+      <c r="BI6" s="289"/>
+      <c r="BJ6" s="288" t="s">
+        <v>257</v>
+      </c>
+      <c r="BK6" s="289"/>
+      <c r="BL6" s="288" t="s">
+        <v>259</v>
+      </c>
+      <c r="BM6" s="289"/>
+      <c r="BN6" s="288" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO6" s="289"/>
+      <c r="BP6" s="288" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ6" s="289"/>
+      <c r="BR6" s="288" t="s">
+        <v>270</v>
+      </c>
+      <c r="BS6" s="289"/>
+      <c r="BT6" s="288" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU6" s="289"/>
+      <c r="BV6" s="288" t="s">
+        <v>268</v>
+      </c>
+      <c r="BW6" s="289"/>
+      <c r="BX6" s="288" t="s">
         <v>267</v>
       </c>
-      <c r="BS6" s="300"/>
-      <c r="BT6" s="292" t="s">
+      <c r="BY6" s="289"/>
+      <c r="BZ6" s="288" t="s">
         <v>266</v>
       </c>
-      <c r="BU6" s="300"/>
-      <c r="BV6" s="292" t="s">
+      <c r="CA6" s="289"/>
+      <c r="CB6" s="288" t="s">
         <v>265</v>
       </c>
-      <c r="BW6" s="300"/>
-      <c r="BX6" s="292" t="s">
-        <v>264</v>
-      </c>
-      <c r="BY6" s="300"/>
-      <c r="BZ6" s="292" t="s">
-        <v>263</v>
-      </c>
-      <c r="CA6" s="300"/>
-      <c r="CB6" s="292" t="s">
-        <v>262</v>
-      </c>
-      <c r="CC6" s="300"/>
-      <c r="CD6" s="292" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE6" s="300"/>
-      <c r="CF6" s="292" t="s">
-        <v>268</v>
-      </c>
-      <c r="CG6" s="300"/>
-      <c r="CH6" s="292" t="s">
+      <c r="CC6" s="289"/>
+      <c r="CD6" s="288" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE6" s="289"/>
+      <c r="CF6" s="288" t="s">
         <v>271</v>
       </c>
-      <c r="CI6" s="300"/>
-      <c r="CJ6" s="292" t="s">
-        <v>272</v>
-      </c>
-      <c r="CK6" s="300"/>
+      <c r="CG6" s="289"/>
+      <c r="CH6" s="288" t="s">
+        <v>273</v>
+      </c>
+      <c r="CI6" s="289"/>
+      <c r="CJ6" s="288" t="s">
+        <v>274</v>
+      </c>
+      <c r="CK6" s="289"/>
     </row>
     <row r="7" spans="1:89">
-      <c r="A7" s="298"/>
+      <c r="A7" s="296"/>
       <c r="B7" s="192" t="s">
         <v>5</v>
       </c>
@@ -12542,13 +12529,13 @@
         <v>8.7229369312833391</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E12" s="164" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G12" s="164" t="s">
         <v>110</v>
@@ -12949,7 +12936,7 @@
         <v>0.21563342318059001</v>
       </c>
       <c r="AX13" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY13" s="164" t="s">
         <v>110</v>
@@ -12967,7 +12954,7 @@
         <v>0.43126684636119</v>
       </c>
       <c r="BD13" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE13" s="164" t="s">
         <v>110</v>
@@ -13080,7 +13067,7 @@
         <v>3.09495963716234</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E14" s="164" t="s">
         <v>110</v>
@@ -13200,13 +13187,13 @@
         <v>0.64516129032257996</v>
       </c>
       <c r="AR14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AT14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU14" s="164" t="s">
         <v>110</v>
@@ -13218,19 +13205,19 @@
         <v>0</v>
       </c>
       <c r="AX14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AZ14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC14" s="164" t="s">
         <v>110</v>
@@ -13242,31 +13229,31 @@
         <v>0</v>
       </c>
       <c r="BF14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM14" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BN14" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO14" s="164" t="s">
         <v>110</v>
@@ -13349,7 +13336,7 @@
         <v>3.6939840830647199</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E15" s="164" t="s">
         <v>110</v>
@@ -13493,13 +13480,13 @@
         <v>0.54054054054054002</v>
       </c>
       <c r="AZ15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA15" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC15" s="164" t="s">
         <v>110</v>
@@ -13517,19 +13504,19 @@
         <v>0.46332046332046001</v>
       </c>
       <c r="BH15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI15" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK15" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BL15" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM15" s="164" t="s">
         <v>110</v>
@@ -13786,7 +13773,7 @@
         <v>0.90311986863711002</v>
       </c>
       <c r="BH16" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI16" s="164" t="s">
         <v>110</v>
@@ -13870,7 +13857,7 @@
         <v>3.7766830870279202</v>
       </c>
       <c r="CJ16" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CK16" s="164" t="s">
         <v>110</v>
@@ -13887,7 +13874,7 @@
         <v>3.51712924665545</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E17" s="164" t="s">
         <v>110</v>
@@ -13995,25 +13982,25 @@
         <v>0.89213300892132996</v>
       </c>
       <c r="AN17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AT17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU17" s="164" t="s">
         <v>110</v>
@@ -14031,13 +14018,13 @@
         <v>0.32441200324412001</v>
       </c>
       <c r="AZ17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC17" s="164" t="s">
         <v>110</v>
@@ -14049,13 +14036,13 @@
         <v>0.32441200324412001</v>
       </c>
       <c r="BF17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG17" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI17" s="164" t="s">
         <v>110</v>
@@ -14139,7 +14126,7 @@
         <v>1.3787510137875101</v>
       </c>
       <c r="CJ17" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CK17" s="164" t="s">
         <v>110</v>
@@ -14162,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G18" s="164" t="s">
         <v>110</v>
@@ -14306,7 +14293,7 @@
         <v>0.77444336882864995</v>
       </c>
       <c r="BB18" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC18" s="164" t="s">
         <v>110</v>
@@ -14318,13 +14305,13 @@
         <v>0.48402710551791001</v>
       </c>
       <c r="BF18" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG18" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH18" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI18" s="164" t="s">
         <v>110</v>
@@ -14407,11 +14394,11 @@
       <c r="CI18" s="164">
         <v>1.74249757986447</v>
       </c>
-      <c r="CJ18" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK18" s="225" t="s">
-        <v>273</v>
+      <c r="CJ18" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK18" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:89">
@@ -14431,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G19" s="164" t="s">
         <v>110</v>
@@ -14611,7 +14598,7 @@
         <v>0.70521861777150996</v>
       </c>
       <c r="BN19" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO19" s="164" t="s">
         <v>110</v>
@@ -14658,29 +14645,29 @@
       <c r="CC19" s="164">
         <v>1.69252468265162</v>
       </c>
-      <c r="CD19" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE19" s="222" t="s">
-        <v>273</v>
-      </c>
-      <c r="CF19" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="CG19" s="222" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH19" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI19" s="222" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ19" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK19" s="222" t="s">
-        <v>273</v>
+      <c r="CD19" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE19" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF19" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG19" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH19" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI19" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CJ19" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK19" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:89">
@@ -14694,13 +14681,13 @@
         <v>2.45885272556123</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G20" s="164" t="s">
         <v>110</v>
@@ -14802,19 +14789,19 @@
         <v>0.81206496519722005</v>
       </c>
       <c r="AN20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS20" s="164" t="s">
         <v>110</v>
@@ -14826,37 +14813,37 @@
         <v>0.46403712296984001</v>
       </c>
       <c r="AV20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE20" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BF20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG20" s="164" t="s">
         <v>110</v>
@@ -14868,7 +14855,7 @@
         <v>0.46403712296984001</v>
       </c>
       <c r="BJ20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK20" s="164" t="s">
         <v>110</v>
@@ -14946,7 +14933,7 @@
         <v>2.2041763341067302</v>
       </c>
       <c r="CJ20" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CK20" s="164" t="s">
         <v>110</v>
@@ -14963,7 +14950,7 @@
         <v>2.2135379524773899</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E21" s="164" t="s">
         <v>110</v>
@@ -15077,7 +15064,7 @@
         <v>1.28865979381443</v>
       </c>
       <c r="AP21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ21" s="164" t="s">
         <v>110</v>
@@ -15089,25 +15076,25 @@
         <v>0.51546391752577003</v>
       </c>
       <c r="AT21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU21" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AV21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW21" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AX21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY21" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA21" s="164" t="s">
         <v>110</v>
@@ -15119,7 +15106,7 @@
         <v>1.15979381443299</v>
       </c>
       <c r="BD21" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE21" s="164" t="s">
         <v>110</v>
@@ -15238,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G22" s="164" t="s">
         <v>110</v>
@@ -15382,13 +15369,13 @@
         <v>1.1887072808321</v>
       </c>
       <c r="BB22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC22" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE22" s="164" t="s">
         <v>110</v>
@@ -15424,7 +15411,7 @@
         <v>1.1887072808321</v>
       </c>
       <c r="BP22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ22" s="164" t="s">
         <v>110</v>
@@ -15436,7 +15423,7 @@
         <v>0.59435364041604999</v>
       </c>
       <c r="BT22" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU22" s="164" t="s">
         <v>110</v>
@@ -15483,11 +15470,11 @@
       <c r="CI22" s="164">
         <v>2.5260029717682002</v>
       </c>
-      <c r="CJ22" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK22" s="225" t="s">
-        <v>273</v>
+      <c r="CJ22" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK22" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:89">
@@ -15501,7 +15488,7 @@
         <v>1.62021850129789</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E23" s="164" t="s">
         <v>110</v>
@@ -15615,13 +15602,13 @@
         <v>1.76056338028169</v>
       </c>
       <c r="AP23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS23" s="164" t="s">
         <v>110</v>
@@ -15633,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW23" s="164" t="s">
         <v>110</v>
@@ -15645,7 +15632,7 @@
         <v>0.88028169014085</v>
       </c>
       <c r="AZ23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA23" s="164" t="s">
         <v>110</v>
@@ -15663,19 +15650,19 @@
         <v>0.88028169014085</v>
       </c>
       <c r="BF23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK23" s="164" t="s">
         <v>110</v>
@@ -15687,19 +15674,19 @@
         <v>1.2323943661971799</v>
       </c>
       <c r="BN23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ23" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS23" s="164" t="s">
         <v>110</v>
@@ -15752,11 +15739,11 @@
       <c r="CI23" s="164">
         <v>2.9929577464788699</v>
       </c>
-      <c r="CJ23" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK23" s="225" t="s">
-        <v>273</v>
+      <c r="CJ23" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK23" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:89">
@@ -15776,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G24" s="164" t="s">
         <v>110</v>
@@ -15878,25 +15865,25 @@
         <v>1.2793176972281499</v>
       </c>
       <c r="AN24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO24" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ24" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS24" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU24" s="164" t="s">
         <v>110</v>
@@ -15908,13 +15895,13 @@
         <v>0.85287846481875995</v>
       </c>
       <c r="AX24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY24" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AZ24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA24" s="164" t="s">
         <v>110</v>
@@ -15932,7 +15919,7 @@
         <v>0.85287846481875995</v>
       </c>
       <c r="BF24" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG24" s="164" t="s">
         <v>110</v>
@@ -16009,23 +15996,23 @@
       <c r="CE24" s="164">
         <v>5.1172707889125801</v>
       </c>
-      <c r="CF24" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CG24" s="225" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH24" s="226" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI24" s="225" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ24" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK24" s="225" t="s">
-        <v>273</v>
+      <c r="CF24" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG24" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH24" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI24" s="228" t="s">
+        <v>275</v>
+      </c>
+      <c r="CJ24" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK24" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:89">
@@ -16045,7 +16032,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G25" s="164" t="s">
         <v>110</v>
@@ -16159,25 +16146,25 @@
         <v>0.94876660341555996</v>
       </c>
       <c r="AR25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY25" s="164" t="s">
         <v>110</v>
@@ -16195,19 +16182,19 @@
         <v>0.94876660341555996</v>
       </c>
       <c r="BD25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI25" s="164" t="s">
         <v>110</v>
@@ -16219,19 +16206,19 @@
         <v>0</v>
       </c>
       <c r="BL25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO25" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BP25" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ25" s="164" t="s">
         <v>110</v>
@@ -16278,7 +16265,7 @@
       <c r="CE25" s="164">
         <v>6.2618595825426997</v>
       </c>
-      <c r="CF25" s="224">
+      <c r="CF25" s="165">
         <v>25</v>
       </c>
       <c r="CG25" s="164">
@@ -16290,7 +16277,7 @@
       <c r="CI25" s="164">
         <v>5.3130929791271404</v>
       </c>
-      <c r="CJ25" s="224">
+      <c r="CJ25" s="165">
         <v>10</v>
       </c>
       <c r="CK25" s="164">
@@ -16332,7 +16319,7 @@
         <v>1.25448028673835</v>
       </c>
       <c r="L26" s="79" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M26" s="164" t="s">
         <v>110</v>
@@ -16416,19 +16403,19 @@
         <v>0.89605734767025003</v>
       </c>
       <c r="AN26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO26" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ26" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AR26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS26" s="164" t="s">
         <v>110</v>
@@ -16440,7 +16427,7 @@
         <v>1.4336917562724001</v>
       </c>
       <c r="AV26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW26" s="164" t="s">
         <v>110</v>
@@ -16452,7 +16439,7 @@
         <v>0.71684587813620004</v>
       </c>
       <c r="AZ26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA26" s="164" t="s">
         <v>110</v>
@@ -16464,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE26" s="164" t="s">
         <v>110</v>
@@ -16488,7 +16475,7 @@
         <v>1.25448028673835</v>
       </c>
       <c r="BL26" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM26" s="164" t="s">
         <v>110</v>
@@ -16685,13 +16672,13 @@
         <v>2.9535864978903001</v>
       </c>
       <c r="AN27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ27" s="164" t="s">
         <v>110</v>
@@ -16703,7 +16690,7 @@
         <v>1.6877637130801699</v>
       </c>
       <c r="AT27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU27" s="164" t="s">
         <v>110</v>
@@ -16721,19 +16708,19 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE27" s="164" t="s">
         <v>110</v>
@@ -16745,31 +16732,31 @@
         <v>0</v>
       </c>
       <c r="BH27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BL27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BN27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ27" s="164" t="s">
         <v>110</v>
@@ -16781,13 +16768,13 @@
         <v>2.1097046413502101</v>
       </c>
       <c r="BT27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU27" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BV27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BW27" s="164" t="s">
         <v>110</v>
@@ -16829,7 +16816,7 @@
         <v>2.5316455696202498</v>
       </c>
       <c r="CJ27" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CK27" s="164" t="s">
         <v>110</v>
@@ -16852,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G28" s="164" t="s">
         <v>110</v>
@@ -16900,7 +16887,7 @@
         <v>2.7491408934707899</v>
       </c>
       <c r="V28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="W28" s="164" t="s">
         <v>110</v>
@@ -16918,7 +16905,7 @@
         <v>2.4054982817869401</v>
       </c>
       <c r="AB28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC28" s="164" t="s">
         <v>110</v>
@@ -16960,7 +16947,7 @@
         <v>1.3745704467354001</v>
       </c>
       <c r="AP28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ28" s="164" t="s">
         <v>110</v>
@@ -16972,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU28" s="164" t="s">
         <v>110</v>
@@ -16996,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC28" s="164" t="s">
         <v>110</v>
@@ -17008,31 +16995,31 @@
         <v>0</v>
       </c>
       <c r="BF28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG28" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BH28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI28" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK28" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM28" s="164" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO28" s="164" t="s">
         <v>110</v>
@@ -17044,7 +17031,7 @@
         <v>1.3745704467354001</v>
       </c>
       <c r="BR28" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS28" s="164" t="s">
         <v>110</v>
@@ -17097,16 +17084,16 @@
       <c r="CI28" s="164">
         <v>2.4054982817869401</v>
       </c>
-      <c r="CJ28" s="223" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK28" s="225" t="s">
-        <v>273</v>
+      <c r="CJ28" s="227" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK28" s="228" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:89">
       <c r="A29" s="154" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B29" s="78">
         <v>249</v>
@@ -17145,25 +17132,25 @@
         <v>2.0080321285140599</v>
       </c>
       <c r="N29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O29" s="164" t="s">
         <v>110</v>
       </c>
       <c r="P29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="164" t="s">
         <v>110</v>
       </c>
       <c r="R29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="S29" s="164" t="s">
         <v>110</v>
       </c>
       <c r="T29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="U29" s="164" t="s">
         <v>110</v>
@@ -17211,7 +17198,7 @@
         <v>5.2208835341365498</v>
       </c>
       <c r="AJ29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AK29" s="164" t="s">
         <v>110</v>
@@ -17223,7 +17210,7 @@
         <v>2.0080321285140599</v>
       </c>
       <c r="AN29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO29" s="164" t="s">
         <v>110</v>
@@ -17235,7 +17222,7 @@
         <v>1.6064257028112501</v>
       </c>
       <c r="AR29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS29" s="164" t="s">
         <v>110</v>
@@ -17247,7 +17234,7 @@
         <v>2.0080321285140599</v>
       </c>
       <c r="AV29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW29" s="164" t="s">
         <v>110</v>
@@ -17271,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE29" s="164" t="s">
         <v>110</v>
@@ -17283,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI29" s="164" t="s">
         <v>110</v>
@@ -17307,7 +17294,7 @@
         <v>1.6064257028112501</v>
       </c>
       <c r="BP29" s="165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ29" s="164" t="s">
         <v>110</v>
@@ -17396,13 +17383,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="159" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="J30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K30" s="155" t="s">
         <v>110</v>
@@ -17414,13 +17401,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="P30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="155" t="s">
         <v>110</v>
@@ -17432,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="U30" s="155" t="s">
         <v>110</v>
@@ -17444,31 +17431,31 @@
         <v>0</v>
       </c>
       <c r="X30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Y30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="Z30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AA30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="AB30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AE30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG30" s="155" t="s">
         <v>110</v>
@@ -17480,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AK30" s="155" t="s">
         <v>110</v>
@@ -17492,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO30" s="155" t="s">
         <v>110</v>
@@ -17504,7 +17491,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS30" s="155" t="s">
         <v>110</v>
@@ -17522,13 +17509,13 @@
         <v>0</v>
       </c>
       <c r="AX30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA30" s="155" t="s">
         <v>110</v>
@@ -17540,7 +17527,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE30" s="155" t="s">
         <v>110</v>
@@ -17552,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI30" s="155" t="s">
         <v>110</v>
@@ -17570,76 +17557,76 @@
         <v>0</v>
       </c>
       <c r="BN30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="BP30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="BR30" s="156" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS30" s="155" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="156" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="BU30" s="155" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="BV30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BW30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BX30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BY30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BZ30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CA30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CB30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CC30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CD30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CE30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CF30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CG30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CH30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CI30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CJ30" s="156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CK30" s="155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:89" ht="15.75" customHeight="1" thickTop="1">
@@ -17754,7 +17741,46 @@
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
     <mergeCell ref="CD6:CE6"/>
     <mergeCell ref="CF6:CG6"/>
     <mergeCell ref="CH6:CI6"/>
@@ -17763,46 +17789,6 @@
     <mergeCell ref="BX6:BY6"/>
     <mergeCell ref="BZ6:CA6"/>
     <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D5:BC5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AX6:AY6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17887,15 +17873,15 @@
       </c>
     </row>
     <row r="2" spans="1:87" ht="46.5" customHeight="1">
-      <c r="A2" s="286" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
+      <c r="A2" s="282" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
       <c r="BC2" s="30"/>
       <c r="BD2" s="194"/>
       <c r="BE2" s="30"/>
@@ -17934,274 +17920,274 @@
     </row>
     <row r="5" spans="1:87" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="284" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="289"/>
-      <c r="D5" s="276" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="272" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="277"/>
-      <c r="AE5" s="277"/>
-      <c r="AF5" s="277"/>
-      <c r="AG5" s="277"/>
-      <c r="AH5" s="277"/>
-      <c r="AI5" s="277"/>
-      <c r="AJ5" s="277"/>
-      <c r="AK5" s="277"/>
-      <c r="AL5" s="277"/>
-      <c r="AM5" s="277"/>
-      <c r="AN5" s="277"/>
-      <c r="AO5" s="277"/>
-      <c r="AP5" s="277"/>
-      <c r="AQ5" s="277"/>
-      <c r="AR5" s="277"/>
-      <c r="AS5" s="277"/>
-      <c r="AT5" s="277"/>
-      <c r="AU5" s="277"/>
-      <c r="AV5" s="277"/>
-      <c r="AW5" s="277"/>
-      <c r="AX5" s="277"/>
-      <c r="AY5" s="277"/>
-      <c r="AZ5" s="277"/>
-      <c r="BA5" s="277"/>
-      <c r="BB5" s="227"/>
-      <c r="BC5" s="227"/>
-      <c r="BD5" s="227"/>
-      <c r="BE5" s="227"/>
-      <c r="BF5" s="227"/>
-      <c r="BG5" s="227"/>
-      <c r="BH5" s="227"/>
-      <c r="BI5" s="227"/>
-      <c r="BJ5" s="227"/>
-      <c r="BK5" s="227"/>
-      <c r="BL5" s="227"/>
-      <c r="BM5" s="227"/>
-      <c r="BN5" s="227"/>
-      <c r="BO5" s="227"/>
-      <c r="BP5" s="227"/>
-      <c r="BQ5" s="227"/>
-      <c r="BR5" s="301" t="s">
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="273"/>
+      <c r="AF5" s="273"/>
+      <c r="AG5" s="273"/>
+      <c r="AH5" s="273"/>
+      <c r="AI5" s="273"/>
+      <c r="AJ5" s="273"/>
+      <c r="AK5" s="273"/>
+      <c r="AL5" s="273"/>
+      <c r="AM5" s="273"/>
+      <c r="AN5" s="273"/>
+      <c r="AO5" s="273"/>
+      <c r="AP5" s="273"/>
+      <c r="AQ5" s="273"/>
+      <c r="AR5" s="273"/>
+      <c r="AS5" s="273"/>
+      <c r="AT5" s="273"/>
+      <c r="AU5" s="273"/>
+      <c r="AV5" s="273"/>
+      <c r="AW5" s="273"/>
+      <c r="AX5" s="273"/>
+      <c r="AY5" s="273"/>
+      <c r="AZ5" s="273"/>
+      <c r="BA5" s="273"/>
+      <c r="BB5" s="223"/>
+      <c r="BC5" s="223"/>
+      <c r="BD5" s="223"/>
+      <c r="BE5" s="223"/>
+      <c r="BF5" s="223"/>
+      <c r="BG5" s="223"/>
+      <c r="BH5" s="223"/>
+      <c r="BI5" s="223"/>
+      <c r="BJ5" s="223"/>
+      <c r="BK5" s="223"/>
+      <c r="BL5" s="223"/>
+      <c r="BM5" s="223"/>
+      <c r="BN5" s="223"/>
+      <c r="BO5" s="223"/>
+      <c r="BP5" s="223"/>
+      <c r="BQ5" s="224"/>
+      <c r="BR5" s="290" t="s">
         <v>203</v>
       </c>
-      <c r="BS5" s="302"/>
-      <c r="BT5" s="302"/>
-      <c r="BU5" s="302"/>
-      <c r="BV5" s="302"/>
-      <c r="BW5" s="302"/>
-      <c r="BX5" s="302"/>
-      <c r="BY5" s="302"/>
-      <c r="BZ5" s="302"/>
-      <c r="CA5" s="302"/>
-      <c r="CB5" s="302"/>
-      <c r="CC5" s="302"/>
-      <c r="CD5" s="302"/>
-      <c r="CE5" s="302"/>
-      <c r="CF5" s="302"/>
-      <c r="CG5" s="302"/>
-      <c r="CH5" s="302"/>
-      <c r="CI5" s="303"/>
+      <c r="BS5" s="273"/>
+      <c r="BT5" s="273"/>
+      <c r="BU5" s="273"/>
+      <c r="BV5" s="273"/>
+      <c r="BW5" s="273"/>
+      <c r="BX5" s="273"/>
+      <c r="BY5" s="273"/>
+      <c r="BZ5" s="273"/>
+      <c r="CA5" s="273"/>
+      <c r="CB5" s="273"/>
+      <c r="CC5" s="273"/>
+      <c r="CD5" s="273"/>
+      <c r="CE5" s="273"/>
+      <c r="CF5" s="273"/>
+      <c r="CG5" s="273"/>
+      <c r="CH5" s="273"/>
+      <c r="CI5" s="291"/>
     </row>
     <row r="6" spans="1:87" ht="13.5" customHeight="1">
-      <c r="A6" s="290"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="296" t="s">
+      <c r="A6" s="286"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="292" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="297"/>
-      <c r="F6" s="296" t="s">
+      <c r="E6" s="293"/>
+      <c r="F6" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="297"/>
-      <c r="H6" s="296" t="s">
+      <c r="G6" s="293"/>
+      <c r="H6" s="292" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="297"/>
-      <c r="J6" s="296" t="s">
+      <c r="I6" s="293"/>
+      <c r="J6" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="297"/>
-      <c r="L6" s="296" t="s">
+      <c r="K6" s="293"/>
+      <c r="L6" s="292" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="297"/>
-      <c r="N6" s="296" t="s">
+      <c r="M6" s="293"/>
+      <c r="N6" s="292" t="s">
         <v>170</v>
       </c>
-      <c r="O6" s="297"/>
-      <c r="P6" s="296" t="s">
+      <c r="O6" s="293"/>
+      <c r="P6" s="292" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="296" t="s">
+      <c r="Q6" s="293"/>
+      <c r="R6" s="292" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="297"/>
-      <c r="T6" s="296" t="s">
+      <c r="S6" s="293"/>
+      <c r="T6" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="U6" s="297"/>
-      <c r="V6" s="296" t="s">
+      <c r="U6" s="293"/>
+      <c r="V6" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="W6" s="297"/>
-      <c r="X6" s="296" t="s">
+      <c r="W6" s="293"/>
+      <c r="X6" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="Y6" s="297"/>
-      <c r="Z6" s="296" t="s">
+      <c r="Y6" s="293"/>
+      <c r="Z6" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="AA6" s="297"/>
-      <c r="AB6" s="296" t="s">
+      <c r="AA6" s="293"/>
+      <c r="AB6" s="292" t="s">
         <v>222</v>
       </c>
-      <c r="AC6" s="297"/>
-      <c r="AD6" s="304" t="s">
+      <c r="AC6" s="293"/>
+      <c r="AD6" s="299" t="s">
         <v>230</v>
       </c>
-      <c r="AE6" s="297"/>
-      <c r="AF6" s="304" t="s">
+      <c r="AE6" s="293"/>
+      <c r="AF6" s="299" t="s">
         <v>234</v>
       </c>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="304" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI6" s="297"/>
-      <c r="AJ6" s="304" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK6" s="297"/>
-      <c r="AL6" s="304" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM6" s="297"/>
-      <c r="AN6" s="304" t="s">
+      <c r="AG6" s="293"/>
+      <c r="AH6" s="299" t="s">
         <v>243</v>
       </c>
-      <c r="AO6" s="297"/>
-      <c r="AP6" s="304" t="s">
+      <c r="AI6" s="293"/>
+      <c r="AJ6" s="299" t="s">
         <v>244</v>
       </c>
-      <c r="AQ6" s="297"/>
-      <c r="AR6" s="304" t="s">
+      <c r="AK6" s="293"/>
+      <c r="AL6" s="299" t="s">
         <v>245</v>
       </c>
-      <c r="AS6" s="297"/>
-      <c r="AT6" s="304" t="s">
+      <c r="AM6" s="293"/>
+      <c r="AN6" s="299" t="s">
         <v>246</v>
       </c>
-      <c r="AU6" s="297"/>
-      <c r="AV6" s="304" t="s">
+      <c r="AO6" s="293"/>
+      <c r="AP6" s="299" t="s">
         <v>247</v>
       </c>
-      <c r="AW6" s="297"/>
-      <c r="AX6" s="304" t="s">
+      <c r="AQ6" s="293"/>
+      <c r="AR6" s="299" t="s">
         <v>248</v>
       </c>
-      <c r="AY6" s="297"/>
-      <c r="AZ6" s="304" t="s">
+      <c r="AS6" s="293"/>
+      <c r="AT6" s="299" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU6" s="293"/>
+      <c r="AV6" s="299" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW6" s="293"/>
+      <c r="AX6" s="299" t="s">
         <v>251</v>
       </c>
-      <c r="BA6" s="297"/>
-      <c r="BB6" s="304" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC6" s="297"/>
-      <c r="BD6" s="304" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE6" s="297"/>
-      <c r="BF6" s="304" t="s">
+      <c r="AY6" s="293"/>
+      <c r="AZ6" s="299" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA6" s="293"/>
+      <c r="BB6" s="299" t="s">
         <v>255</v>
       </c>
-      <c r="BG6" s="297"/>
-      <c r="BH6" s="304" t="s">
-        <v>254</v>
-      </c>
-      <c r="BI6" s="297"/>
-      <c r="BJ6" s="304" t="s">
+      <c r="BC6" s="293"/>
+      <c r="BD6" s="299" t="s">
         <v>256</v>
       </c>
-      <c r="BK6" s="297"/>
-      <c r="BL6" s="304" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM6" s="297"/>
-      <c r="BN6" s="304" t="s">
-        <v>261</v>
-      </c>
-      <c r="BO6" s="297"/>
-      <c r="BP6" s="304" t="s">
+      <c r="BE6" s="293"/>
+      <c r="BF6" s="299" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG6" s="293"/>
+      <c r="BH6" s="299" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI6" s="293"/>
+      <c r="BJ6" s="299" t="s">
+        <v>259</v>
+      </c>
+      <c r="BK6" s="293"/>
+      <c r="BL6" s="299" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM6" s="293"/>
+      <c r="BN6" s="299" t="s">
+        <v>264</v>
+      </c>
+      <c r="BO6" s="293"/>
+      <c r="BP6" s="299" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ6" s="293"/>
+      <c r="BR6" s="299" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS6" s="293"/>
+      <c r="BT6" s="299" t="s">
+        <v>268</v>
+      </c>
+      <c r="BU6" s="293"/>
+      <c r="BV6" s="299" t="s">
         <v>267</v>
       </c>
-      <c r="BQ6" s="297"/>
-      <c r="BR6" s="304" t="s">
+      <c r="BW6" s="293"/>
+      <c r="BX6" s="299" t="s">
         <v>266</v>
       </c>
-      <c r="BS6" s="297"/>
-      <c r="BT6" s="304" t="s">
+      <c r="BY6" s="293"/>
+      <c r="BZ6" s="299" t="s">
         <v>265</v>
       </c>
-      <c r="BU6" s="297"/>
-      <c r="BV6" s="304" t="s">
-        <v>264</v>
-      </c>
-      <c r="BW6" s="297"/>
-      <c r="BX6" s="304" t="s">
-        <v>263</v>
-      </c>
-      <c r="BY6" s="297"/>
-      <c r="BZ6" s="304" t="s">
-        <v>262</v>
-      </c>
-      <c r="CA6" s="297"/>
-      <c r="CB6" s="304" t="s">
-        <v>269</v>
-      </c>
-      <c r="CC6" s="297"/>
-      <c r="CD6" s="304" t="s">
-        <v>268</v>
-      </c>
-      <c r="CE6" s="297"/>
-      <c r="CF6" s="304" t="s">
+      <c r="CA6" s="293"/>
+      <c r="CB6" s="299" t="s">
+        <v>272</v>
+      </c>
+      <c r="CC6" s="293"/>
+      <c r="CD6" s="299" t="s">
         <v>271</v>
       </c>
-      <c r="CG6" s="297"/>
-      <c r="CH6" s="304" t="s">
-        <v>272</v>
-      </c>
-      <c r="CI6" s="297"/>
+      <c r="CE6" s="293"/>
+      <c r="CF6" s="299" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG6" s="293"/>
+      <c r="CH6" s="299" t="s">
+        <v>274</v>
+      </c>
+      <c r="CI6" s="293"/>
     </row>
     <row r="7" spans="1:87">
-      <c r="A7" s="291"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -18466,7 +18452,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="219">
-        <v>27221</v>
+        <v>27220</v>
       </c>
       <c r="C8" s="184">
         <v>100</v>
@@ -18475,253 +18461,253 @@
         <v>31</v>
       </c>
       <c r="E8" s="179">
-        <v>0.11388266411961</v>
+        <v>0.11388684790594999</v>
       </c>
       <c r="F8" s="130">
         <v>129</v>
       </c>
       <c r="G8" s="177">
-        <v>0.47389882811064998</v>
+        <v>0.47391623806025002</v>
       </c>
       <c r="H8" s="78">
         <v>426</v>
       </c>
       <c r="I8" s="177">
-        <v>1.5649682230630799</v>
+        <v>1.5650257163850101</v>
       </c>
       <c r="J8" s="78">
         <v>994</v>
       </c>
       <c r="K8" s="177">
-        <v>3.6515925204805102</v>
+        <v>3.6517266715650298</v>
       </c>
       <c r="L8" s="78">
         <v>1219</v>
       </c>
       <c r="M8" s="177">
-        <v>4.4781602439293202</v>
+        <v>4.4783247612050001</v>
       </c>
       <c r="N8" s="78">
         <v>1399</v>
       </c>
       <c r="O8" s="177">
-        <v>5.13941442268837</v>
+        <v>5.1396032329169703</v>
       </c>
       <c r="P8" s="78">
         <v>1420</v>
       </c>
       <c r="Q8" s="177">
-        <v>5.2165607435435897</v>
+        <v>5.2167523879500397</v>
       </c>
       <c r="R8" s="78">
         <v>1290</v>
       </c>
       <c r="S8" s="218">
-        <v>4.7389882811064998</v>
+        <v>4.7391623806025001</v>
       </c>
       <c r="T8" s="130">
         <v>1286</v>
       </c>
       <c r="U8" s="213">
-        <v>4.7242937438007404</v>
+        <v>4.7244673034533404</v>
       </c>
       <c r="V8" s="88">
         <v>1107</v>
       </c>
       <c r="W8" s="217">
-        <v>4.0667131993681398</v>
+        <v>4.0668626010286602</v>
       </c>
       <c r="X8" s="130">
         <v>1044</v>
       </c>
       <c r="Y8" s="212">
-        <v>3.8352742368024701</v>
+        <v>3.8354151359294599</v>
       </c>
       <c r="Z8" s="130">
         <v>1083</v>
       </c>
       <c r="AA8" s="214">
-        <v>3.9785459755336001</v>
+        <v>3.9786921381337299</v>
       </c>
       <c r="AB8" s="88">
         <v>1010</v>
       </c>
       <c r="AC8" s="214">
-        <v>3.7103706697035399</v>
+        <v>3.7105069801616501</v>
       </c>
       <c r="AD8" s="88">
         <v>908</v>
       </c>
       <c r="AE8" s="212">
-        <v>3.3356599684067501</v>
+        <v>3.3357825128581902</v>
       </c>
       <c r="AF8" s="130">
         <v>795</v>
       </c>
       <c r="AG8" s="214">
-        <v>2.92053928951912</v>
+        <v>2.9206465833945598</v>
       </c>
       <c r="AH8" s="88">
         <v>785</v>
       </c>
       <c r="AI8" s="215">
-        <v>2.8838029462547299</v>
+        <v>2.8839088905216799</v>
       </c>
       <c r="AJ8" s="88">
         <v>583</v>
       </c>
       <c r="AK8" s="214">
-        <v>2.1417288123140201</v>
+        <v>2.1418074944893499</v>
       </c>
       <c r="AL8" s="88">
         <v>422</v>
       </c>
       <c r="AM8" s="214">
-        <v>1.5502736857573201</v>
+        <v>1.55033063923586</v>
       </c>
       <c r="AN8" s="88">
         <v>285</v>
       </c>
       <c r="AO8" s="212">
-        <v>1.0469857830351601</v>
+        <v>1.0470242468772999</v>
       </c>
       <c r="AP8" s="216">
         <v>201</v>
       </c>
       <c r="AQ8" s="215">
-        <v>0.73840049961427001</v>
+        <v>0.73842762674504003</v>
       </c>
       <c r="AR8" s="88">
         <v>202</v>
       </c>
       <c r="AS8" s="212">
-        <v>0.74207413394070998</v>
+        <v>0.74210139603233005</v>
       </c>
       <c r="AT8" s="216">
         <v>165</v>
       </c>
       <c r="AU8" s="212">
-        <v>0.60614966386246005</v>
+        <v>0.60617193240264999</v>
       </c>
       <c r="AV8" s="130">
         <v>160</v>
       </c>
       <c r="AW8" s="212">
-        <v>0.58778149223025999</v>
+        <v>0.58780308596620001</v>
       </c>
       <c r="AX8" s="130">
         <v>169</v>
       </c>
       <c r="AY8" s="214">
-        <v>0.62084420116822003</v>
+        <v>0.62086700955179996</v>
       </c>
       <c r="AZ8" s="88">
         <v>135</v>
       </c>
       <c r="BA8" s="212">
-        <v>0.49594063406928002</v>
+        <v>0.49595885378398002</v>
       </c>
       <c r="BB8" s="216">
         <v>111</v>
       </c>
       <c r="BC8" s="215">
-        <v>0.40777341023475</v>
+        <v>0.40778839088905</v>
       </c>
       <c r="BD8" s="88">
         <v>98</v>
       </c>
       <c r="BE8" s="214">
-        <v>0.36001616399103997</v>
+        <v>0.36002939015430002</v>
       </c>
       <c r="BF8" s="88">
         <v>119</v>
       </c>
       <c r="BG8" s="214">
-        <v>0.43716248484626002</v>
+        <v>0.43717854518735999</v>
       </c>
       <c r="BH8" s="88">
         <v>126</v>
       </c>
       <c r="BI8" s="214">
-        <v>0.46287792513133003</v>
+        <v>0.46289493019838002</v>
       </c>
       <c r="BJ8" s="88">
         <v>154</v>
       </c>
       <c r="BK8" s="214">
-        <v>0.56573968627162996</v>
+        <v>0.56576047024247</v>
       </c>
       <c r="BL8" s="88">
         <v>154</v>
       </c>
       <c r="BM8" s="214">
-        <v>0.56573968627162996</v>
+        <v>0.56576047024247</v>
       </c>
       <c r="BN8" s="88">
         <v>192</v>
       </c>
       <c r="BO8" s="213">
-        <v>0.70533779067631996</v>
+        <v>0.70536370315943997</v>
       </c>
       <c r="BP8" s="88">
         <v>221</v>
       </c>
       <c r="BQ8" s="213">
-        <v>0.81187318614305004</v>
+        <v>0.81190301249081998</v>
       </c>
       <c r="BR8" s="88">
         <v>354</v>
       </c>
       <c r="BS8" s="175">
-        <v>1.30046655155946</v>
+        <v>1.30051432770022</v>
       </c>
       <c r="BT8" s="88">
         <v>591</v>
       </c>
       <c r="BU8" s="175">
-        <v>2.1711178869255399</v>
+        <v>2.1711976487876599</v>
       </c>
       <c r="BV8" s="88">
         <v>867</v>
       </c>
       <c r="BW8" s="212">
-        <v>3.1850409610227399</v>
+        <v>3.1851579720793501</v>
       </c>
       <c r="BX8" s="88">
         <v>1075</v>
       </c>
       <c r="BY8" s="212">
-        <v>3.9491569009220799</v>
+        <v>3.94930198383542</v>
       </c>
       <c r="BZ8" s="88">
         <v>1320</v>
       </c>
       <c r="CA8" s="212">
-        <v>4.8491973108996698</v>
+        <v>4.84937545922116</v>
       </c>
       <c r="CB8" s="88">
         <v>1191</v>
       </c>
       <c r="CC8" s="212">
-        <v>4.3752984827890202</v>
+        <v>4.3754592211609102</v>
       </c>
       <c r="CD8" s="88">
         <v>1254</v>
       </c>
       <c r="CE8" s="212">
-        <v>4.6067374453546899</v>
+        <v>4.6069066862600998</v>
       </c>
       <c r="CF8" s="88">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="CG8" s="212">
-        <v>4.8896072884904997</v>
+        <v>4.8861131520940502</v>
       </c>
       <c r="CH8" s="88">
         <v>782</v>
       </c>
       <c r="CI8" s="212">
-        <v>2.8727820432754099</v>
+        <v>2.8728875826598101</v>
       </c>
     </row>
     <row r="9" spans="1:87">
@@ -18823,7 +18809,7 @@
         <v>9960</v>
       </c>
       <c r="C10" s="91">
-        <v>36.589397891333903</v>
+        <v>36.590742101396003</v>
       </c>
       <c r="D10" s="78">
         <v>18</v>
@@ -19068,13 +19054,13 @@
       <c r="CF10" s="103">
         <v>447</v>
       </c>
-      <c r="CG10" s="229">
+      <c r="CG10" s="221">
         <v>4.48795180722892</v>
       </c>
-      <c r="CH10" s="230">
+      <c r="CH10" s="222">
         <v>166</v>
       </c>
-      <c r="CI10" s="229">
+      <c r="CI10" s="221">
         <v>1.6666666666666701</v>
       </c>
     </row>
@@ -19086,7 +19072,7 @@
         <v>4073</v>
       </c>
       <c r="C11" s="93">
-        <v>14.9627126115866</v>
+        <v>14.963262307127099</v>
       </c>
       <c r="D11" s="78">
         <v>4</v>
@@ -19331,13 +19317,13 @@
       <c r="CF11" s="103">
         <v>233</v>
       </c>
-      <c r="CG11" s="229">
+      <c r="CG11" s="221">
         <v>5.7205990670267601</v>
       </c>
-      <c r="CH11" s="230">
+      <c r="CH11" s="222">
         <v>284</v>
       </c>
-      <c r="CI11" s="229">
+      <c r="CI11" s="221">
         <v>6.9727473606678103</v>
       </c>
     </row>
@@ -19349,16 +19335,16 @@
         <v>2520</v>
       </c>
       <c r="C12" s="93">
-        <v>9.2575585026266491</v>
+        <v>9.2578986039676696</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E12" s="208" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G12" s="208" t="s">
         <v>110</v>
@@ -19594,13 +19580,13 @@
       <c r="CF12" s="103">
         <v>255</v>
       </c>
-      <c r="CG12" s="229">
+      <c r="CG12" s="221">
         <v>10.119047619047601</v>
       </c>
-      <c r="CH12" s="230">
+      <c r="CH12" s="222">
         <v>88</v>
       </c>
-      <c r="CI12" s="229">
+      <c r="CI12" s="221">
         <v>3.4920634920634899</v>
       </c>
     </row>
@@ -19612,10 +19598,10 @@
         <v>1456</v>
       </c>
       <c r="C13" s="93">
-        <v>5.3488115792953996</v>
+        <v>5.3490080822924302</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E13" s="208" t="s">
         <v>110</v>
@@ -19765,13 +19751,13 @@
         <v>0.34340659340659002</v>
       </c>
       <c r="BB13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC13" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE13" s="207" t="s">
         <v>110</v>
@@ -19795,19 +19781,19 @@
         <v>0.48076923076923</v>
       </c>
       <c r="BL13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM13" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BN13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO13" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ13" s="205" t="s">
         <v>110</v>
@@ -19857,13 +19843,13 @@
       <c r="CF13" s="103">
         <v>58</v>
       </c>
-      <c r="CG13" s="229">
+      <c r="CG13" s="221">
         <v>3.98351648351648</v>
       </c>
-      <c r="CH13" s="230">
+      <c r="CH13" s="222">
         <v>54</v>
       </c>
-      <c r="CI13" s="229">
+      <c r="CI13" s="221">
         <v>3.7087912087912098</v>
       </c>
     </row>
@@ -19875,7 +19861,7 @@
         <v>1064</v>
       </c>
       <c r="C14" s="94">
-        <v>3.90874692333125</v>
+        <v>3.9088905216752399</v>
       </c>
       <c r="D14" s="78">
         <v>0</v>
@@ -20028,7 +20014,7 @@
         <v>0.37593984962406002</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC14" s="203" t="s">
         <v>110</v>
@@ -20040,25 +20026,25 @@
         <v>0.46992481203008002</v>
       </c>
       <c r="BF14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG14" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI14" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK14" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM14" s="201" t="s">
         <v>110</v>
@@ -20120,13 +20106,13 @@
       <c r="CF14" s="103">
         <v>48</v>
       </c>
-      <c r="CG14" s="229">
+      <c r="CG14" s="221">
         <v>4.5112781954887202</v>
       </c>
-      <c r="CH14" s="230">
+      <c r="CH14" s="222">
         <v>37</v>
       </c>
-      <c r="CI14" s="229">
+      <c r="CI14" s="221">
         <v>3.47744360902256</v>
       </c>
     </row>
@@ -20135,10 +20121,10 @@
         <v>124</v>
       </c>
       <c r="B15" s="90">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C15" s="94">
-        <v>3.5964880055839199</v>
+        <v>3.59294636296841</v>
       </c>
       <c r="D15" s="78">
         <v>0</v>
@@ -20147,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G15" s="204" t="s">
         <v>110</v>
@@ -20156,166 +20142,166 @@
         <v>6</v>
       </c>
       <c r="I15" s="204">
-        <v>0.61287027579162001</v>
+        <v>0.61349693251533999</v>
       </c>
       <c r="J15" s="78">
         <v>41</v>
       </c>
       <c r="K15" s="204">
-        <v>4.1879468845760996</v>
+        <v>4.1922290388548102</v>
       </c>
       <c r="L15" s="78">
         <v>32</v>
       </c>
       <c r="M15" s="204">
-        <v>3.2686414708886602</v>
+        <v>3.2719836400818001</v>
       </c>
       <c r="N15" s="78">
         <v>53</v>
       </c>
       <c r="O15" s="204">
-        <v>5.4136874361593499</v>
+        <v>5.4192229038854798</v>
       </c>
       <c r="P15" s="78">
         <v>34</v>
       </c>
       <c r="Q15" s="204">
-        <v>3.4729315628192001</v>
+        <v>3.4764826175869099</v>
       </c>
       <c r="R15" s="78">
         <v>45</v>
       </c>
       <c r="S15" s="204">
-        <v>4.5965270684371804</v>
+        <v>4.6012269938650299</v>
       </c>
       <c r="T15" s="78">
         <v>40</v>
       </c>
       <c r="U15" s="203">
-        <v>4.0858018386108297</v>
+        <v>4.0899795501022496</v>
       </c>
       <c r="V15" s="78">
         <v>33</v>
       </c>
       <c r="W15" s="203">
-        <v>3.3707865168539302</v>
+        <v>3.3742331288343599</v>
       </c>
       <c r="X15" s="78">
         <v>35</v>
       </c>
       <c r="Y15" s="203">
-        <v>3.5750766087844701</v>
+        <v>3.5787321063394701</v>
       </c>
       <c r="Z15" s="78">
         <v>33</v>
       </c>
       <c r="AA15" s="203">
-        <v>3.3707865168539302</v>
+        <v>3.3742331288343599</v>
       </c>
       <c r="AB15" s="78">
         <v>33</v>
       </c>
       <c r="AC15" s="203">
-        <v>3.3707865168539302</v>
+        <v>3.3742331288343599</v>
       </c>
       <c r="AD15" s="78">
         <v>33</v>
       </c>
       <c r="AE15" s="203">
-        <v>3.3707865168539302</v>
+        <v>3.3742331288343599</v>
       </c>
       <c r="AF15" s="78">
         <v>40</v>
       </c>
       <c r="AG15" s="203">
-        <v>4.0858018386108297</v>
+        <v>4.0899795501022496</v>
       </c>
       <c r="AH15" s="78">
         <v>30</v>
       </c>
       <c r="AI15" s="203">
-        <v>3.0643513789581198</v>
+        <v>3.0674846625766898</v>
       </c>
       <c r="AJ15" s="78">
         <v>30</v>
       </c>
       <c r="AK15" s="203">
-        <v>3.0643513789581198</v>
+        <v>3.0674846625766898</v>
       </c>
       <c r="AL15" s="78">
         <v>23</v>
       </c>
       <c r="AM15" s="203">
-        <v>2.3493360572012301</v>
+        <v>2.3517382413087899</v>
       </c>
       <c r="AN15" s="78">
         <v>16</v>
       </c>
       <c r="AO15" s="203">
-        <v>1.6343207354443301</v>
+        <v>1.6359918200409</v>
       </c>
       <c r="AP15" s="78">
         <v>21</v>
       </c>
       <c r="AQ15" s="203">
-        <v>2.1450459652706799</v>
+        <v>2.1472392638036801</v>
       </c>
       <c r="AR15" s="78">
         <v>11</v>
       </c>
       <c r="AS15" s="203">
-        <v>1.1235955056179801</v>
+        <v>1.12474437627812</v>
       </c>
       <c r="AT15" s="78">
         <v>9</v>
       </c>
       <c r="AU15" s="203">
-        <v>0.91930541368744001</v>
+        <v>0.92024539877301004</v>
       </c>
       <c r="AV15" s="78">
         <v>10</v>
       </c>
       <c r="AW15" s="203">
-        <v>1.0214504596527101</v>
+        <v>1.0224948875255599</v>
       </c>
       <c r="AX15" s="78">
         <v>9</v>
       </c>
       <c r="AY15" s="203">
-        <v>0.91930541368744001</v>
+        <v>0.92024539877301004</v>
       </c>
       <c r="AZ15" s="78">
         <v>8</v>
       </c>
       <c r="BA15" s="203">
-        <v>0.81716036772217004</v>
+        <v>0.81799591002045002</v>
       </c>
       <c r="BB15" s="78">
         <v>7</v>
       </c>
       <c r="BC15" s="203">
-        <v>0.71501532175688998</v>
+        <v>0.71574642126789001</v>
       </c>
       <c r="BD15" s="78">
         <v>9</v>
       </c>
       <c r="BE15" s="203">
-        <v>0.91930541368744001</v>
+        <v>0.92024539877301004</v>
       </c>
       <c r="BF15" s="78">
         <v>6</v>
       </c>
       <c r="BG15" s="203">
-        <v>0.61287027579162001</v>
+        <v>0.61349693251533999</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI15" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK15" s="201" t="s">
         <v>110</v>
@@ -20324,73 +20310,73 @@
         <v>8</v>
       </c>
       <c r="BM15" s="201">
-        <v>0.81716036772217004</v>
+        <v>0.81799591002045002</v>
       </c>
       <c r="BN15" s="78">
         <v>11</v>
       </c>
       <c r="BO15" s="201">
-        <v>1.1235955056179801</v>
+        <v>1.12474437627812</v>
       </c>
       <c r="BP15" s="78">
         <v>8</v>
       </c>
       <c r="BQ15" s="201">
-        <v>0.81716036772217004</v>
+        <v>0.81799591002045002</v>
       </c>
       <c r="BR15" s="78">
         <v>9</v>
       </c>
       <c r="BS15" s="202">
-        <v>0.91930541368744001</v>
+        <v>0.92024539877301004</v>
       </c>
       <c r="BT15" s="78">
         <v>14</v>
       </c>
       <c r="BU15" s="202">
-        <v>1.4300306435137899</v>
+        <v>1.43149284253579</v>
       </c>
       <c r="BV15" s="78">
         <v>19</v>
       </c>
       <c r="BW15" s="201">
-        <v>1.94075587334014</v>
+        <v>1.9427402862985701</v>
       </c>
       <c r="BX15" s="78">
         <v>38</v>
       </c>
       <c r="BY15" s="201">
-        <v>3.8815117466802902</v>
+        <v>3.8854805725971402</v>
       </c>
       <c r="BZ15" s="78">
         <v>38</v>
       </c>
       <c r="CA15" s="201">
-        <v>3.8815117466802902</v>
+        <v>3.8854805725971402</v>
       </c>
       <c r="CB15" s="78">
         <v>44</v>
       </c>
       <c r="CC15" s="201">
-        <v>4.4943820224719104</v>
+        <v>4.4989775051124798</v>
       </c>
       <c r="CD15" s="78">
         <v>59</v>
       </c>
       <c r="CE15" s="201">
-        <v>6.0265577119509697</v>
+        <v>6.0327198364008199</v>
       </c>
       <c r="CF15" s="103">
-        <v>53</v>
-      </c>
-      <c r="CG15" s="229">
-        <v>5.4136874361593499</v>
-      </c>
-      <c r="CH15" s="230">
+        <v>52</v>
+      </c>
+      <c r="CG15" s="221">
+        <v>5.3169734151329298</v>
+      </c>
+      <c r="CH15" s="222">
         <v>23</v>
       </c>
-      <c r="CI15" s="229">
-        <v>2.3493360572012301</v>
+      <c r="CI15" s="221">
+        <v>2.3517382413087899</v>
       </c>
     </row>
     <row r="16" spans="1:87">
@@ -20401,10 +20387,10 @@
         <v>862</v>
       </c>
       <c r="C16" s="94">
-        <v>3.1666727893905402</v>
+        <v>3.1667891256429099</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E16" s="204" t="s">
         <v>110</v>
@@ -20518,13 +20504,13 @@
         <v>1.16009280742459</v>
       </c>
       <c r="AP16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ16" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AR16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS16" s="203" t="s">
         <v>110</v>
@@ -20536,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW16" s="203" t="s">
         <v>110</v>
@@ -20554,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC16" s="203" t="s">
         <v>110</v>
@@ -20566,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG16" s="203" t="s">
         <v>110</v>
@@ -20578,25 +20564,25 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK16" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BL16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM16" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BN16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO16" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BP16" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ16" s="201" t="s">
         <v>110</v>
@@ -20646,13 +20632,13 @@
       <c r="CF16" s="103">
         <v>21</v>
       </c>
-      <c r="CG16" s="229">
+      <c r="CG16" s="221">
         <v>2.4361948955916501</v>
       </c>
-      <c r="CH16" s="230">
+      <c r="CH16" s="222">
         <v>12</v>
       </c>
-      <c r="CI16" s="229">
+      <c r="CI16" s="221">
         <v>1.3921113689095099</v>
       </c>
     </row>
@@ -20664,16 +20650,16 @@
         <v>948</v>
       </c>
       <c r="C17" s="94">
-        <v>3.4826053414643101</v>
+        <v>3.4827332843497398</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E17" s="204" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G17" s="204" t="s">
         <v>110</v>
@@ -20787,7 +20773,7 @@
         <v>0.42194092827003998</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS17" s="203" t="s">
         <v>110</v>
@@ -20799,19 +20785,19 @@
         <v>0.42194092827003998</v>
       </c>
       <c r="AV17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW17" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY17" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AZ17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA17" s="203" t="s">
         <v>110</v>
@@ -20829,7 +20815,7 @@
         <v>0.42194092827003998</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG17" s="203" t="s">
         <v>110</v>
@@ -20909,13 +20895,13 @@
       <c r="CF17" s="103">
         <v>32</v>
       </c>
-      <c r="CG17" s="229">
+      <c r="CG17" s="221">
         <v>3.3755274261603399</v>
       </c>
-      <c r="CH17" s="230">
+      <c r="CH17" s="222">
         <v>20</v>
       </c>
-      <c r="CI17" s="229">
+      <c r="CI17" s="221">
         <v>2.1097046413502101</v>
       </c>
     </row>
@@ -20927,7 +20913,7 @@
         <v>580</v>
       </c>
       <c r="C18" s="94">
-        <v>2.1307079093347099</v>
+        <v>2.1307861866274802</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -21110,7 +21096,7 @@
         <v>1.72413793103448</v>
       </c>
       <c r="BL18" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM18" s="201" t="s">
         <v>110</v>
@@ -21158,28 +21144,28 @@
         <v>2.9310344827586201</v>
       </c>
       <c r="CB18" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CC18" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="CD18" s="78">
-        <v>0</v>
-      </c>
-      <c r="CE18" s="201">
-        <v>0</v>
-      </c>
-      <c r="CF18" s="103">
-        <v>0</v>
-      </c>
-      <c r="CG18" s="229">
-        <v>0</v>
-      </c>
-      <c r="CH18" s="231" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI18" s="232" t="s">
-        <v>273</v>
+      <c r="CD18" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE18" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF18" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG18" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH18" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI18" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:87">
@@ -21190,7 +21176,7 @@
         <v>717</v>
       </c>
       <c r="C19" s="93">
-        <v>2.6339958120568698</v>
+        <v>2.6340925789860399</v>
       </c>
       <c r="D19" s="83">
         <v>0</v>
@@ -21199,7 +21185,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G19" s="208" t="s">
         <v>110</v>
@@ -21307,7 +21293,7 @@
         <v>0.83682008368201</v>
       </c>
       <c r="AP19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ19" s="207" t="s">
         <v>110</v>
@@ -21343,13 +21329,13 @@
         <v>0.97629009762900998</v>
       </c>
       <c r="BB19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC19" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BD19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE19" s="207" t="s">
         <v>110</v>
@@ -21421,28 +21407,28 @@
         <v>7.6708507670850796</v>
       </c>
       <c r="CB19" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="CC19" s="205" t="s">
         <v>110</v>
       </c>
       <c r="CD19" s="143" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE19" s="205" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="CE19" s="201" t="s">
+        <v>275</v>
       </c>
       <c r="CF19" s="143" t="s">
-        <v>273</v>
-      </c>
-      <c r="CG19" s="205" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="CG19" s="201" t="s">
+        <v>275</v>
       </c>
       <c r="CH19" s="143" t="s">
-        <v>273</v>
-      </c>
-      <c r="CI19" s="205" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="CI19" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:87">
@@ -21453,7 +21439,7 @@
         <v>749</v>
       </c>
       <c r="C20" s="94">
-        <v>2.7515521105029199</v>
+        <v>2.7516531961792801</v>
       </c>
       <c r="D20" s="78">
         <v>0</v>
@@ -21570,7 +21556,7 @@
         <v>0.53404539385848004</v>
       </c>
       <c r="AP20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ20" s="203" t="s">
         <v>110</v>
@@ -21588,31 +21574,31 @@
         <v>0.53404539385848004</v>
       </c>
       <c r="AV20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW20" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY20" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA20" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC20" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE20" s="203" t="s">
         <v>110</v>
@@ -21630,7 +21616,7 @@
         <v>0.53404539385848004</v>
       </c>
       <c r="BJ20" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK20" s="201" t="s">
         <v>110</v>
@@ -21698,13 +21684,13 @@
       <c r="CF20" s="103">
         <v>28</v>
       </c>
-      <c r="CG20" s="229">
+      <c r="CG20" s="221">
         <v>3.7383177570093502</v>
       </c>
-      <c r="CH20" s="230">
+      <c r="CH20" s="222">
         <v>14</v>
       </c>
-      <c r="CI20" s="229">
+      <c r="CI20" s="221">
         <v>1.86915887850467</v>
       </c>
     </row>
@@ -21716,16 +21702,16 @@
         <v>570</v>
       </c>
       <c r="C21" s="96">
-        <v>2.09397156607031</v>
+        <v>2.09404849375459</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E21" s="204" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G21" s="204" t="s">
         <v>110</v>
@@ -21833,19 +21819,19 @@
         <v>0.87719298245613997</v>
       </c>
       <c r="AP21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AR21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AT21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU21" s="203" t="s">
         <v>110</v>
@@ -21857,13 +21843,13 @@
         <v>0.87719298245613997</v>
       </c>
       <c r="AX21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA21" s="203" t="s">
         <v>110</v>
@@ -21875,13 +21861,13 @@
         <v>1.0526315789473699</v>
       </c>
       <c r="BD21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF21" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG21" s="203" t="s">
         <v>110</v>
@@ -21961,13 +21947,13 @@
       <c r="CF21" s="103">
         <v>10</v>
       </c>
-      <c r="CG21" s="229">
+      <c r="CG21" s="221">
         <v>1.7543859649122799</v>
       </c>
-      <c r="CH21" s="230">
+      <c r="CH21" s="222">
         <v>9</v>
       </c>
-      <c r="CI21" s="229">
+      <c r="CI21" s="221">
         <v>1.57894736842105</v>
       </c>
     </row>
@@ -21979,7 +21965,7 @@
         <v>540</v>
       </c>
       <c r="C22" s="94">
-        <v>1.9837625362771401</v>
+        <v>1.9838354151359301</v>
       </c>
       <c r="D22" s="85">
         <v>0</v>
@@ -22132,25 +22118,25 @@
         <v>1.1111111111111101</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC22" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE22" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG22" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI22" s="201" t="s">
         <v>110</v>
@@ -22180,13 +22166,13 @@
         <v>0.74074074074074003</v>
       </c>
       <c r="BR22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU22" s="202" t="s">
         <v>110</v>
@@ -22224,13 +22210,13 @@
       <c r="CF22" s="103">
         <v>46</v>
       </c>
-      <c r="CG22" s="229">
+      <c r="CG22" s="221">
         <v>8.5185185185185208</v>
       </c>
-      <c r="CH22" s="230">
+      <c r="CH22" s="222">
         <v>8</v>
       </c>
-      <c r="CI22" s="229">
+      <c r="CI22" s="221">
         <v>1.4814814814814801</v>
       </c>
     </row>
@@ -22242,7 +22228,7 @@
         <v>357</v>
       </c>
       <c r="C23" s="93">
-        <v>1.31148745453878</v>
+        <v>1.31153563556209</v>
       </c>
       <c r="D23" s="78">
         <v>0</v>
@@ -22269,7 +22255,7 @@
         <v>1.40056022408964</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M23" s="208" t="s">
         <v>110</v>
@@ -22365,7 +22351,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS23" s="207" t="s">
         <v>110</v>
@@ -22377,43 +22363,43 @@
         <v>0</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="AZ23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BB23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BF23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG23" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI23" s="205" t="s">
         <v>110</v>
@@ -22431,19 +22417,19 @@
         <v>1.6806722689075599</v>
       </c>
       <c r="BN23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO23" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ23" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS23" s="206" t="s">
         <v>110</v>
@@ -22472,29 +22458,29 @@
       <c r="CA23" s="205">
         <v>4.4817927170868401</v>
       </c>
-      <c r="CB23" s="78">
-        <v>0</v>
-      </c>
-      <c r="CC23" s="205">
-        <v>0</v>
-      </c>
-      <c r="CD23" s="78">
-        <v>0</v>
-      </c>
-      <c r="CE23" s="205">
-        <v>0</v>
-      </c>
-      <c r="CF23" s="103">
-        <v>0</v>
-      </c>
-      <c r="CG23" s="229">
-        <v>0</v>
-      </c>
-      <c r="CH23" s="230">
-        <v>0</v>
-      </c>
-      <c r="CI23" s="229">
-        <v>0</v>
+      <c r="CB23" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CC23" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD23" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE23" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF23" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG23" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH23" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI23" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:87">
@@ -22505,7 +22491,7 @@
         <v>383</v>
       </c>
       <c r="C24" s="94">
-        <v>1.4070019470261901</v>
+        <v>1.40705363703159</v>
       </c>
       <c r="D24" s="85">
         <v>0</v>
@@ -22514,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G24" s="204" t="s">
         <v>110</v>
@@ -22628,25 +22614,25 @@
         <v>0</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS24" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU24" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW24" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY24" s="203" t="s">
         <v>110</v>
@@ -22658,13 +22644,13 @@
         <v>1.0443864229765001</v>
       </c>
       <c r="BB24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC24" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE24" s="203" t="s">
         <v>110</v>
@@ -22676,7 +22662,7 @@
         <v>1.30548302872063</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI24" s="201" t="s">
         <v>110</v>
@@ -22688,13 +22674,13 @@
         <v>1.30548302872063</v>
       </c>
       <c r="BL24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM24" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO24" s="201" t="s">
         <v>110</v>
@@ -22747,17 +22733,17 @@
       <c r="CE24" s="201">
         <v>1.0443864229765001</v>
       </c>
-      <c r="CF24" s="103">
-        <v>0</v>
-      </c>
-      <c r="CG24" s="229">
-        <v>0</v>
-      </c>
-      <c r="CH24" s="230">
-        <v>0</v>
-      </c>
-      <c r="CI24" s="229">
-        <v>0</v>
+      <c r="CF24" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG24" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH24" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI24" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:87">
@@ -22768,22 +22754,22 @@
         <v>423</v>
       </c>
       <c r="C25" s="94">
-        <v>1.5539473200837599</v>
+        <v>1.5540044085231499</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E25" s="204" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G25" s="204" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I25" s="204" t="s">
         <v>110</v>
@@ -22885,31 +22871,31 @@
         <v>1.8912529550827399</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY25" s="203" t="s">
         <v>110</v>
@@ -22921,43 +22907,43 @@
         <v>0.94562647754136997</v>
       </c>
       <c r="BB25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI25" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BJ25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK25" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BL25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM25" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO25" s="201" t="s">
         <v>110</v>
@@ -22975,7 +22961,7 @@
         <v>0.94562647754136997</v>
       </c>
       <c r="BT25" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU25" s="202" t="s">
         <v>110</v>
@@ -23013,13 +22999,13 @@
       <c r="CF25" s="103">
         <v>31</v>
       </c>
-      <c r="CG25" s="229">
+      <c r="CG25" s="221">
         <v>7.3286052009456304</v>
       </c>
-      <c r="CH25" s="230">
+      <c r="CH25" s="222">
         <v>17</v>
       </c>
-      <c r="CI25" s="229">
+      <c r="CI25" s="221">
         <v>4.0189125295508301</v>
       </c>
     </row>
@@ -23031,7 +23017,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="94">
-        <v>1.34087652915029</v>
+        <v>1.3409257898603999</v>
       </c>
       <c r="D26" s="84">
         <v>0</v>
@@ -23046,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I26" s="204" t="s">
         <v>110</v>
       </c>
       <c r="J26" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K26" s="204" t="s">
         <v>110</v>
@@ -23136,19 +23122,19 @@
         <v>1.6438356164383601</v>
       </c>
       <c r="AL26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AM26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ26" s="203" t="s">
         <v>110</v>
@@ -23166,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW26" s="203" t="s">
         <v>110</v>
@@ -23178,7 +23164,7 @@
         <v>1.6438356164383601</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA26" s="203" t="s">
         <v>110</v>
@@ -23190,19 +23176,19 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI26" s="201" t="s">
         <v>110</v>
@@ -23214,7 +23200,7 @@
         <v>1.3698630136986301</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM26" s="201" t="s">
         <v>110</v>
@@ -23276,13 +23262,13 @@
       <c r="CF26" s="103">
         <v>25</v>
       </c>
-      <c r="CG26" s="229">
+      <c r="CG26" s="221">
         <v>6.8493150684931496</v>
       </c>
-      <c r="CH26" s="230">
+      <c r="CH26" s="222">
         <v>27</v>
       </c>
-      <c r="CI26" s="229">
+      <c r="CI26" s="221">
         <v>7.3972602739726101</v>
       </c>
     </row>
@@ -23294,10 +23280,10 @@
         <v>249</v>
       </c>
       <c r="C27" s="94">
-        <v>0.91473494728335003</v>
+        <v>0.91476855253489997</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E27" s="204" t="s">
         <v>110</v>
@@ -23309,7 +23295,7 @@
         <v>2.4096385542168699</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I27" s="204" t="s">
         <v>110</v>
@@ -23405,55 +23391,55 @@
         <v>1.6064257028112501</v>
       </c>
       <c r="AN27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AQ27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AR27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AT27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AV27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AX27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="AZ27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC27" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE27" s="203" t="s">
         <v>110</v>
@@ -23465,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="BH27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI27" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK27" s="201" t="s">
         <v>110</v>
@@ -23483,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="BN27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO27" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ27" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BR27" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS27" s="202" t="s">
         <v>110</v>
@@ -23539,14 +23525,14 @@
       <c r="CF27" s="103">
         <v>15</v>
       </c>
-      <c r="CG27" s="229">
+      <c r="CG27" s="221">
         <v>6.0240963855421699</v>
       </c>
-      <c r="CH27" s="230">
-        <v>0</v>
-      </c>
-      <c r="CI27" s="229">
-        <v>0</v>
+      <c r="CH27" s="143" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI27" s="201" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:87">
@@ -23557,7 +23543,7 @@
         <v>199</v>
       </c>
       <c r="C28" s="93">
-        <v>0.73105323096138997</v>
+        <v>0.73108008817046</v>
       </c>
       <c r="D28" s="83">
         <v>0</v>
@@ -23566,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G28" s="208" t="s">
         <v>110</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I28" s="208" t="s">
         <v>110</v>
@@ -23644,7 +23630,7 @@
         <v>2.5125628140703502</v>
       </c>
       <c r="AF28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG28" s="207" t="s">
         <v>110</v>
@@ -23662,13 +23648,13 @@
         <v>6.0301507537688499</v>
       </c>
       <c r="AL28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AM28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="AN28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO28" s="207" t="s">
         <v>110</v>
@@ -23686,7 +23672,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AU28" s="207" t="s">
         <v>110</v>
@@ -23698,25 +23684,25 @@
         <v>0</v>
       </c>
       <c r="AX28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="AZ28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BB28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="BD28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE28" s="207" t="s">
         <v>110</v>
@@ -23728,25 +23714,25 @@
         <v>0</v>
       </c>
       <c r="BH28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BK28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO28" s="205" t="s">
         <v>110</v>
@@ -23758,19 +23744,19 @@
         <v>0</v>
       </c>
       <c r="BR28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BT28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BU28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BV28" s="83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BW28" s="205" t="s">
         <v>110</v>
@@ -23802,25 +23788,25 @@
       <c r="CF28" s="103">
         <v>9</v>
       </c>
-      <c r="CG28" s="229">
+      <c r="CG28" s="221">
         <v>4.5226130653266301</v>
       </c>
-      <c r="CH28" s="230">
+      <c r="CH28" s="222">
         <v>4</v>
       </c>
-      <c r="CI28" s="229">
+      <c r="CI28" s="221">
         <v>2.0100502512562799</v>
       </c>
     </row>
     <row r="29" spans="1:87">
       <c r="A29" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B29" s="90">
         <v>198</v>
       </c>
       <c r="C29" s="94">
-        <v>0.72737959663495</v>
+        <v>0.72740631888316998</v>
       </c>
       <c r="D29" s="84">
         <v>0</v>
@@ -23835,7 +23821,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I29" s="204" t="s">
         <v>110</v>
@@ -23847,13 +23833,13 @@
         <v>2.0202020202020199</v>
       </c>
       <c r="L29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M29" s="204" t="s">
         <v>110</v>
       </c>
       <c r="N29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O29" s="204" t="s">
         <v>110</v>
@@ -23865,7 +23851,7 @@
         <v>2.0202020202020199</v>
       </c>
       <c r="R29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="S29" s="204" t="s">
         <v>110</v>
@@ -23877,7 +23863,7 @@
         <v>2.52525252525253</v>
       </c>
       <c r="V29" s="84" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="W29" s="203" t="s">
         <v>110</v>
@@ -23931,7 +23917,7 @@
         <v>2.52525252525253</v>
       </c>
       <c r="AN29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO29" s="203" t="s">
         <v>110</v>
@@ -23955,7 +23941,7 @@
         <v>2.0202020202020199</v>
       </c>
       <c r="AV29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW29" s="203" t="s">
         <v>110</v>
@@ -23967,31 +23953,31 @@
         <v>2.52525252525253</v>
       </c>
       <c r="AZ29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BB29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BD29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BF29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="BH29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BI29" s="201" t="s">
         <v>110</v>
@@ -24015,13 +24001,13 @@
         <v>2.52525252525253</v>
       </c>
       <c r="BP29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BQ29" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BR29" s="100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BS29" s="202" t="s">
         <v>110</v>
@@ -24065,13 +24051,13 @@
       <c r="CF29" s="103">
         <v>20</v>
       </c>
-      <c r="CG29" s="229">
+      <c r="CG29" s="221">
         <v>10.1010101010101</v>
       </c>
-      <c r="CH29" s="230">
+      <c r="CH29" s="222">
         <v>19</v>
       </c>
-      <c r="CI29" s="229">
+      <c r="CI29" s="221">
         <v>9.5959595959596005</v>
       </c>
     </row>
@@ -24083,7 +24069,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="97">
-        <v>0.10653539546674</v>
+        <v>0.10653930933137</v>
       </c>
       <c r="D30" s="86">
         <v>0</v>
@@ -24104,7 +24090,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K30" s="200" t="s">
         <v>110</v>
@@ -24122,19 +24108,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="200" t="s">
         <v>110</v>
       </c>
       <c r="R30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="S30" s="200" t="s">
         <v>110</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="U30" s="199" t="s">
         <v>110</v>
@@ -24146,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Y30" s="199" t="s">
         <v>110</v>
@@ -24158,37 +24144,37 @@
         <v>0</v>
       </c>
       <c r="AB30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AE30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AH30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AI30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AJ30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AK30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AL30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AM30" s="199" t="s">
         <v>110</v>
@@ -24206,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS30" s="199" t="s">
         <v>110</v>
@@ -24218,37 +24204,37 @@
         <v>0</v>
       </c>
       <c r="AV30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AW30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AX30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AY30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="BB30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BC30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="BD30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BE30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="BF30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BG30" s="199" t="s">
         <v>110</v>
@@ -24266,13 +24252,13 @@
         <v>0</v>
       </c>
       <c r="BL30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM30" s="197" t="s">
         <v>110</v>
       </c>
       <c r="BN30" s="86" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BO30" s="197" t="s">
         <v>110</v>
@@ -24284,58 +24270,58 @@
         <v>0</v>
       </c>
       <c r="BR30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BS30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BT30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BU30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BV30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BW30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BX30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BY30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BZ30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CA30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CB30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CC30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CD30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CE30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CF30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CG30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CH30" s="86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CI30" s="198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:87" ht="15.75" customHeight="1" thickTop="1">
@@ -24425,37 +24411,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="BR5:CI5"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D5:BA5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="AR6:AS6"/>
@@ -24472,6 +24427,37 @@
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D5:BA5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="BR5:CI5"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24480,53 +24466,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -24859,32 +24798,54 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24901,4 +24862,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>